--- a/nodes_source_analyses/transport/transport_truck_using_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_hydrogen.converter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="-23540" windowWidth="19200" windowHeight="23540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="28800" yWindow="-12500" windowWidth="19200" windowHeight="23540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Initial investment costs </t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Technical</t>
@@ -387,6 +384,10 @@
   <si>
     <t>p.66</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -398,7 +399,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -572,11 +573,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1288,32 +1284,32 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1340,10 +1336,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1368,9 +1364,9 @@
     <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="259" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="259" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1379,11 +1375,11 @@
     <xf numFmtId="166" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="30" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="29" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1396,31 +1392,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1723,83 +1719,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>482600</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2364,10 +2284,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="3.140625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -2393,7 +2313,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2402,7 +2322,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2535,29 +2455,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B2" sqref="B2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="2.1640625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="34.5" style="32" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="32" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" style="32" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="32"/>
+    <col min="1" max="1" width="3.85546875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="32" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -2566,39 +2486,39 @@
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="144" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="C2" s="145"/>
       <c r="D2" s="145"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="147"/>
       <c r="C3" s="148"/>
       <c r="D3" s="148"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="149"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="147"/>
       <c r="C4" s="148"/>
       <c r="D4" s="148"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="149"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="150"/>
       <c r="C5" s="151"/>
       <c r="D5" s="151"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="152"/>
     </row>
     <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="33"/>
@@ -2649,7 +2569,7 @@
     <row r="10" spans="1:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="13"/>
@@ -2665,7 +2585,7 @@
         <v>28</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="126">
         <f>'Research data'!H7</f>
@@ -2673,11 +2593,11 @@
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="125" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="107" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" s="14"/>
     </row>
@@ -2685,7 +2605,7 @@
       <c r="A12" s="22"/>
       <c r="B12" s="21"/>
       <c r="C12" s="141" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="38">
@@ -2693,11 +2613,11 @@
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="141" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="142" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="33"/>
@@ -2717,7 +2637,7 @@
     <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="101"/>
       <c r="E14" s="102"/>
@@ -2744,7 +2664,7 @@
       </c>
       <c r="H15" s="36"/>
       <c r="I15" s="139" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J15" s="105"/>
     </row>
@@ -2765,7 +2685,7 @@
       </c>
       <c r="H16" s="36"/>
       <c r="I16" s="139" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J16" s="105"/>
     </row>
@@ -2773,21 +2693,21 @@
       <c r="A17" s="132"/>
       <c r="B17" s="133"/>
       <c r="C17" s="134" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="135" t="s">
         <v>71</v>
-      </c>
-      <c r="D17" s="135" t="s">
-        <v>72</v>
       </c>
       <c r="E17" s="100">
         <v>0</v>
       </c>
       <c r="F17" s="134"/>
       <c r="G17" s="134" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" s="134"/>
       <c r="I17" s="142" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="136"/>
     </row>
@@ -2795,7 +2715,7 @@
       <c r="A18" s="132"/>
       <c r="B18" s="133"/>
       <c r="C18" s="134" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="135"/>
       <c r="E18" s="100">
@@ -2803,11 +2723,11 @@
       </c>
       <c r="F18" s="134"/>
       <c r="G18" s="134" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H18" s="134"/>
       <c r="I18" s="142" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J18" s="136"/>
     </row>
@@ -2815,7 +2735,7 @@
       <c r="A19" s="132"/>
       <c r="B19" s="133"/>
       <c r="C19" s="134" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="135"/>
       <c r="E19" s="100">
@@ -2823,11 +2743,11 @@
       </c>
       <c r="F19" s="134"/>
       <c r="G19" s="134" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H19" s="134"/>
       <c r="I19" s="142" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J19" s="136"/>
     </row>
@@ -2835,7 +2755,7 @@
       <c r="A20" s="132"/>
       <c r="B20" s="133"/>
       <c r="C20" s="134" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="135"/>
       <c r="E20" s="100">
@@ -2843,11 +2763,11 @@
       </c>
       <c r="F20" s="134"/>
       <c r="G20" s="134" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H20" s="134"/>
       <c r="I20" s="142" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J20" s="136"/>
     </row>
@@ -2855,7 +2775,7 @@
       <c r="A21" s="132"/>
       <c r="B21" s="133"/>
       <c r="C21" s="134" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="135"/>
       <c r="E21" s="100">
@@ -2863,11 +2783,11 @@
       </c>
       <c r="F21" s="134"/>
       <c r="G21" s="137" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="134"/>
       <c r="I21" s="142" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J21" s="136"/>
     </row>
@@ -2875,21 +2795,21 @@
       <c r="A22" s="132"/>
       <c r="B22" s="138"/>
       <c r="C22" s="137" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="E22" s="100">
         <v>0</v>
       </c>
       <c r="F22" s="137"/>
       <c r="G22" s="137" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" s="137"/>
       <c r="I22" s="139" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J22" s="140"/>
     </row>
@@ -2897,10 +2817,10 @@
       <c r="A23" s="132"/>
       <c r="B23" s="138"/>
       <c r="C23" s="137" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>86</v>
       </c>
       <c r="E23" s="100">
         <v>0</v>
@@ -2909,7 +2829,7 @@
       <c r="G23" s="137"/>
       <c r="H23" s="137"/>
       <c r="I23" s="139" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J23" s="140"/>
     </row>
@@ -2955,7 +2875,7 @@
       </c>
       <c r="H26" s="36"/>
       <c r="I26" s="107" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J26" s="105"/>
     </row>
@@ -2963,7 +2883,7 @@
       <c r="A27" s="132"/>
       <c r="B27" s="138"/>
       <c r="C27" s="137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>1</v>
@@ -2973,11 +2893,11 @@
       </c>
       <c r="F27" s="137"/>
       <c r="G27" s="137" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H27" s="137"/>
       <c r="I27" s="139" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J27" s="140"/>
     </row>
@@ -3011,42 +2931,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E5"/>
+    <mergeCell ref="B2:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>190500</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>482600</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -3063,23 +2951,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="42" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="42" customWidth="1"/>
-    <col min="7" max="7" width="3.1640625" style="42" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.83203125" style="42" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.6640625" style="42" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="42" customWidth="1"/>
-    <col min="15" max="15" width="2.5" style="42" customWidth="1"/>
-    <col min="16" max="16" width="68.83203125" style="42" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="42"/>
+    <col min="1" max="1" width="3.140625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" style="42" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="42" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="42" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" style="42" customWidth="1"/>
+    <col min="16" max="16" width="68.85546875" style="42" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3116,7 +3004,7 @@
       </c>
       <c r="I4" s="95"/>
       <c r="J4" s="95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" s="95"/>
       <c r="L4" s="95"/>
@@ -3124,7 +3012,7 @@
       <c r="N4" s="95"/>
       <c r="O4" s="95"/>
       <c r="P4" s="95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3150,7 +3038,7 @@
       <c r="A6" s="22"/>
       <c r="B6" s="21"/>
       <c r="C6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3174,7 +3062,7 @@
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="116" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="96"/>
       <c r="H7" s="124">
@@ -3325,7 +3213,7 @@
     <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="45"/>
       <c r="C15" s="115" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
@@ -3356,18 +3244,18 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="2.1640625" style="62" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="62" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="62" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="62" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="69" customWidth="1"/>
-    <col min="9" max="9" width="34.5" style="69" customWidth="1"/>
-    <col min="10" max="10" width="98.33203125" style="62" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="62"/>
+    <col min="1" max="1" width="5.7109375" style="62" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="62" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="62" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="62" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="69" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" style="69" customWidth="1"/>
+    <col min="10" max="10" width="98.28515625" style="62" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3421,13 +3309,13 @@
         <v>18</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="76" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" s="75" t="s">
         <v>10</v>
@@ -3447,10 +3335,10 @@
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="65"/>
       <c r="C7" s="118" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="117" t="s">
         <v>65</v>
-      </c>
-      <c r="D7" s="117" t="s">
-        <v>66</v>
       </c>
       <c r="E7" s="117" t="s">
         <v>7</v>
@@ -3465,10 +3353,10 @@
         <v>42325</v>
       </c>
       <c r="I7" s="120" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" s="121" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -3487,7 +3375,7 @@
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="65"/>
       <c r="C9" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66"/>
@@ -3568,11 +3456,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="106" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" style="106" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="106"/>
-    <col min="4" max="4" width="8.5" style="106" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="106"/>
+    <col min="1" max="1" width="4.7109375" style="106" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="106" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="106"/>
+    <col min="4" max="4" width="8.42578125" style="106" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="106"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3596,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="99"/>
       <c r="F3" s="99"/>
@@ -3625,7 +3513,7 @@
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="110"/>
       <c r="C5" s="111" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="111"/>
       <c r="E5" s="111"/>
@@ -3641,7 +3529,7 @@
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="110"/>
       <c r="C6" s="111" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="111"/>
       <c r="E6" s="111"/>
@@ -3943,7 +3831,7 @@
         <v>12</v>
       </c>
       <c r="F27" s="117" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" s="111"/>
       <c r="H27" s="111"/>
@@ -4110,7 +3998,7 @@
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="110"/>
       <c r="C39" s="111" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" s="111"/>
       <c r="E39" s="111"/>
@@ -4126,7 +4014,7 @@
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="110"/>
       <c r="C40" s="143" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="111"/>
       <c r="E40" s="111"/>
@@ -4154,7 +4042,7 @@
         <v>6.8</v>
       </c>
       <c r="F44" s="123" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
@@ -4164,7 +4052,7 @@
         <v>0.14705882352941177</v>
       </c>
       <c r="F45" s="123" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">

--- a/nodes_source_analyses/transport/transport_truck_using_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_hydrogen.converter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-12500" windowWidth="19200" windowHeight="23540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26900" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="126">
   <si>
     <t>Source</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Fixed operational and maintenance costs per year</t>
-  </si>
-  <si>
-    <t>output.car_kms</t>
   </si>
   <si>
     <t xml:space="preserve">Technical lifetime </t>
@@ -388,6 +385,105 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>output.freight_tonne_kms</t>
+  </si>
+  <si>
+    <t>tkm/MJ</t>
+  </si>
+  <si>
+    <t>Tonne km</t>
+  </si>
+  <si>
+    <t>Eurostat</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>http://ec.europa.eu/eurostat/web/transport/data/main-tables?p_p_id=NavTreeportletprod_WAR_NavTreeportletprod_INSTANCE_BXN01QNK1Jk7&amp;p_p_lifecycle=0&amp;p_p_state=normal&amp;p_p_mode=view&amp;p_p_col_id=column-2&amp;p_p_col_count=1</t>
+  </si>
+  <si>
+    <t>Vehicle km</t>
+  </si>
+  <si>
+    <t>vehicle km</t>
+  </si>
+  <si>
+    <t>mln vehicle km</t>
+  </si>
+  <si>
+    <t>tonne km</t>
+  </si>
+  <si>
+    <t>mln tonne km</t>
+  </si>
+  <si>
+    <t>tonne km/vehicle km</t>
+  </si>
+  <si>
+    <t>tonne km/MJ</t>
+  </si>
+  <si>
+    <t>Tonne km trucks</t>
+  </si>
+  <si>
+    <t>Vehicle km trucks</t>
+  </si>
+  <si>
+    <t>Tonne km vans</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=82836ned&amp;D1=1-2&amp;D2=0&amp;D3=0&amp;D4=l&amp;HDR=T&amp;STB=G1,G2,G3&amp;VW=T</t>
+  </si>
+  <si>
+    <t>Vehicle km vans</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=80353ned&amp;D1=a&amp;D2=a&amp;D3=0&amp;D4=25-26&amp;HDR=T&amp;STB=G1,G2,G3&amp;VW=T</t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>van</t>
+  </si>
+  <si>
+    <t>weighted average</t>
+  </si>
+  <si>
+    <t>truck kms</t>
+  </si>
+  <si>
+    <t>mln</t>
+  </si>
+  <si>
+    <t>Note: Eurostat freight transport excludes all vehicles &lt; 3.5 tonne. Since vans are included in the truck category in the ETM, we calculated the weighted efficiency</t>
+  </si>
+  <si>
+    <t>truck tonne kms</t>
+  </si>
+  <si>
+    <t>van kms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: used 2016 data since tonne kms is only available for 2016. Used van vehicle kms from different Statline than tonne kms since we are interested in all vehicle kms, not just loaded </t>
+  </si>
+  <si>
+    <t>van tonne kms</t>
+  </si>
+  <si>
+    <t>Note: used 2016 data since tonne kms is only available for 2016</t>
+  </si>
+  <si>
+    <t>mj/km</t>
+  </si>
+  <si>
+    <t>km/mj</t>
+  </si>
 </sst>
 </file>
 
@@ -399,12 +495,26 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -551,6 +661,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,6 +669,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -565,6 +677,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -572,17 +685,20 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -590,16 +706,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -897,528 +1016,536 @@
   </borders>
   <cellStyleXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="259" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="259" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="29" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="31" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="287">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1763,14 +1890,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1787,7 +1914,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4521200" y="10172700"/>
+          <a:off x="4838700" y="7759700"/>
           <a:ext cx="6324600" cy="2984500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1827,6 +1954,196 @@
         <a:xfrm>
           <a:off x="4216400" y="1181100"/>
           <a:ext cx="6121400" cy="2679700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9728200" y="23710900"/>
+          <a:ext cx="13512800" cy="3543300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9728200" y="27254200"/>
+          <a:ext cx="13373100" cy="3441700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11277600" y="8674100"/>
+          <a:ext cx="7823200" cy="2044700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17233900" y="8813800"/>
+          <a:ext cx="5050064" cy="1930400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>65797</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18275300" y="10896600"/>
+          <a:ext cx="6019800" cy="2707397"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2284,10 +2601,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="18"/>
+    <col min="1" max="1" width="3.1640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -2313,16 +2630,16 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2346,106 +2663,106 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="80"/>
+      <c r="B9" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="79"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="83" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="81"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="84" t="s">
-        <v>34</v>
+      <c r="B13" s="80"/>
+      <c r="C13" s="83" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82" t="s">
-        <v>35</v>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="82"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="84" t="s">
         <v>36</v>
-      </c>
-      <c r="C16" s="85" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="86" t="s">
-        <v>38</v>
+      <c r="B17" s="80"/>
+      <c r="C17" s="85" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="87" t="s">
-        <v>39</v>
+      <c r="B18" s="80"/>
+      <c r="C18" s="86" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="88" t="s">
-        <v>40</v>
+      <c r="B19" s="80"/>
+      <c r="C19" s="87" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90" t="s">
-        <v>41</v>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="91" t="s">
-        <v>42</v>
+      <c r="B21" s="88"/>
+      <c r="C21" s="90" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="92" t="s">
+      <c r="B22" s="88"/>
+      <c r="C22" s="91" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="88"/>
+      <c r="C23" s="92" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="89"/>
-      <c r="C23" s="93" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2462,22 +2779,22 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G5"/>
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="2.140625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="32" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" style="32" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" style="32" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="32"/>
+    <col min="1" max="1" width="3.83203125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="2.1640625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="34.5" style="32" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="32" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -2487,38 +2804,38 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="144" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="146"/>
+      <c r="B2" s="151" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="153"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="147"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="149"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="147"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="149"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="156"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="150"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="152"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="159"/>
     </row>
     <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="33"/>
@@ -2542,7 +2859,7 @@
       <c r="D8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="98" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="15"/>
@@ -2553,7 +2870,7 @@
       <c r="I8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="104"/>
+      <c r="J8" s="103"/>
     </row>
     <row r="9" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
@@ -2569,7 +2886,7 @@
     <row r="10" spans="1:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="13"/>
@@ -2581,43 +2898,43 @@
     </row>
     <row r="11" spans="1:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
-      <c r="C11" s="61" t="s">
-        <v>28</v>
+      <c r="C11" s="60" t="s">
+        <v>93</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="126">
-        <f>'Research data'!H7</f>
-        <v>0.14705882352941177</v>
+        <v>94</v>
+      </c>
+      <c r="E11" s="125">
+        <f>'Research data'!F7</f>
+        <v>0.93176970700411599</v>
       </c>
       <c r="F11" s="36"/>
-      <c r="G11" s="125" t="s">
-        <v>64</v>
+      <c r="G11" s="124" t="s">
+        <v>63</v>
       </c>
       <c r="H11" s="28"/>
-      <c r="I11" s="107" t="s">
-        <v>57</v>
+      <c r="I11" s="106" t="s">
+        <v>56</v>
       </c>
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="141" t="s">
-        <v>89</v>
+      <c r="C12" s="140" t="s">
+        <v>88</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="38">
         <v>0</v>
       </c>
       <c r="F12" s="36"/>
-      <c r="G12" s="141" t="s">
+      <c r="G12" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="141" t="s">
         <v>90</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="142" t="s">
-        <v>91</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="33"/>
@@ -2625,27 +2942,27 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="37"/>
       <c r="C13" s="33"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="105"/>
+      <c r="J13" s="104"/>
       <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
+        <v>50</v>
+      </c>
+      <c r="D14" s="100"/>
+      <c r="E14" s="101"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="105"/>
+      <c r="J14" s="104"/>
     </row>
     <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
@@ -2663,10 +2980,10 @@
         <v>6</v>
       </c>
       <c r="H15" s="36"/>
-      <c r="I15" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" s="105"/>
+      <c r="I15" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="104"/>
     </row>
     <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
@@ -2676,7 +2993,7 @@
       <c r="D16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="100">
+      <c r="E16" s="99">
         <v>0</v>
       </c>
       <c r="F16" s="36"/>
@@ -2684,178 +3001,178 @@
         <v>27</v>
       </c>
       <c r="H16" s="36"/>
-      <c r="I16" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="105"/>
+      <c r="I16" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="104"/>
     </row>
     <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="134" t="s">
+      <c r="A17" s="131"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="133" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="135" t="s">
+      <c r="E17" s="99">
+        <v>0</v>
+      </c>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="100">
+      <c r="H17" s="133"/>
+      <c r="I17" s="141" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="135"/>
+    </row>
+    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="131"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="133" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="134"/>
+      <c r="E18" s="99">
         <v>0</v>
       </c>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="134"/>
-      <c r="I17" s="142" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="136"/>
-    </row>
-    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="134" t="s">
+      <c r="F18" s="133"/>
+      <c r="G18" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="100">
+      <c r="H18" s="133"/>
+      <c r="I18" s="141" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="135"/>
+    </row>
+    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="131"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="133" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="134"/>
+      <c r="E19" s="99">
         <v>0</v>
       </c>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="134"/>
-      <c r="I18" s="142" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="136"/>
-    </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="132"/>
-      <c r="B19" s="133"/>
-      <c r="C19" s="134" t="s">
+      <c r="F19" s="133"/>
+      <c r="G19" s="133" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="100">
+      <c r="H19" s="133"/>
+      <c r="I19" s="141" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="135"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="131"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="133" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="134"/>
+      <c r="E20" s="99">
         <v>0</v>
       </c>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="134"/>
-      <c r="I19" s="142" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="136"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="132"/>
-      <c r="B20" s="133"/>
-      <c r="C20" s="134" t="s">
+      <c r="F20" s="133"/>
+      <c r="G20" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="100">
+      <c r="H20" s="133"/>
+      <c r="I20" s="141" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="135"/>
+    </row>
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="131"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="133" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="134"/>
+      <c r="E21" s="99">
         <v>0</v>
       </c>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="134"/>
-      <c r="I20" s="142" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="136"/>
-    </row>
-    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="134" t="s">
+      <c r="F21" s="133"/>
+      <c r="G21" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="135"/>
-      <c r="E21" s="100">
+      <c r="H21" s="133"/>
+      <c r="I21" s="141" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="135"/>
+    </row>
+    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="131"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="136" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="99">
         <v>0</v>
       </c>
-      <c r="F21" s="134"/>
-      <c r="G21" s="137" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="134"/>
-      <c r="I21" s="142" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="136"/>
-    </row>
-    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="132"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="137" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="19" t="s">
+      <c r="F22" s="136"/>
+      <c r="G22" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="100">
+      <c r="H22" s="136"/>
+      <c r="I22" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="139"/>
+    </row>
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="131"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="136" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="99">
         <v>0</v>
       </c>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="137"/>
-      <c r="I22" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="J22" s="140"/>
-    </row>
-    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="132"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="100">
-        <v>0</v>
-      </c>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23" s="140"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="139"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="37"/>
       <c r="C24" s="33"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="103"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="102"/>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="105"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="104"/>
     </row>
     <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="103"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="102"/>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="105"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="104"/>
     </row>
     <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
@@ -2866,40 +3183,40 @@
         <v>1</v>
       </c>
       <c r="E26" s="38">
-        <f>'Research data'!H14</f>
+        <f>'Research data'!F14</f>
         <v>12</v>
       </c>
       <c r="F26" s="36"/>
-      <c r="G26" s="67" t="s">
-        <v>29</v>
+      <c r="G26" s="66" t="s">
+        <v>28</v>
       </c>
       <c r="H26" s="36"/>
-      <c r="I26" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" s="105"/>
+      <c r="I26" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="104"/>
     </row>
     <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="132"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="137" t="s">
-        <v>86</v>
+      <c r="A27" s="131"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="136" t="s">
+        <v>85</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="100">
+      <c r="E27" s="99">
         <v>0</v>
       </c>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137" t="s">
+      <c r="F27" s="136"/>
+      <c r="G27" s="136" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="136"/>
+      <c r="I27" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="137"/>
-      <c r="I27" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" s="140"/>
+      <c r="J27" s="139"/>
     </row>
     <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
@@ -2916,7 +3233,7 @@
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
       <c r="I28" s="31"/>
-      <c r="J28" s="105"/>
+      <c r="J28" s="104"/>
     </row>
     <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="39"/>
@@ -2943,35 +3260,33 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:Q15"/>
+  <dimension ref="A2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="42" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" style="42" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" style="42" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" style="42" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="42" customWidth="1"/>
-    <col min="15" max="15" width="2.42578125" style="42" customWidth="1"/>
-    <col min="16" max="16" width="68.85546875" style="42" customWidth="1"/>
-    <col min="17" max="16384" width="10.7109375" style="42"/>
+    <col min="1" max="1" width="3.1640625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="42" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="42" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="42" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.5" style="42" customWidth="1"/>
+    <col min="14" max="14" width="68.83203125" style="42" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -2985,37 +3300,33 @@
       <c r="L3" s="44"/>
       <c r="M3" s="44"/>
       <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-    </row>
-    <row r="4" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
-      <c r="C4" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="95" t="s">
+      <c r="C4" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" s="21"/>
       <c r="C5" s="9"/>
@@ -3030,202 +3341,180 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="22"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="22"/>
+    </row>
+    <row r="6" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="21"/>
       <c r="C6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="46"/>
       <c r="K6" s="46"/>
       <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="P6" s="58"/>
-    </row>
-    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="116" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="124">
-        <f>J7</f>
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="124">
-        <f>Notes!E45</f>
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="128"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C7" s="114" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="95"/>
+      <c r="F7" s="123">
+        <f>H7</f>
+        <v>0.93176970700411599</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="123">
+        <f>Notes!E69</f>
+        <v>0.93176970700411599</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="127"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="45"/>
       <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="60"/>
-    </row>
-    <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="59"/>
+    </row>
+    <row r="9" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
       <c r="C9" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
       <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="114"/>
-    </row>
-    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="113"/>
+    </row>
+    <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="45"/>
       <c r="C10" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="97"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="50">
+        <f>H10</f>
+        <v>248000</v>
+      </c>
+      <c r="G10" s="11"/>
       <c r="H10" s="50">
-        <f>J10</f>
-        <v>248000</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="50">
         <f>Notes!E18</f>
         <v>248000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="45"/>
       <c r="C11" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="49"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E11" s="97"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="49"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="45"/>
       <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="60"/>
-    </row>
-    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="59"/>
+    </row>
+    <row r="13" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="45"/>
       <c r="C13" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
       <c r="L13" s="46"/>
       <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="48"/>
-    </row>
-    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="48"/>
+    </row>
+    <row r="14" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="45"/>
       <c r="C14" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="47" t="s">
+      <c r="D14" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="96"/>
-      <c r="H14" s="53">
+      <c r="E14" s="95"/>
+      <c r="F14" s="53">
         <f>Notes!E27</f>
         <v>12</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="57"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
       <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="68"/>
-    </row>
-    <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="67"/>
+    </row>
+    <row r="15" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="45"/>
-      <c r="C15" s="115" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="116" t="s">
+      <c r="C15" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="98"/>
-      <c r="H15" s="55">
+      <c r="E15" s="97"/>
+      <c r="F15" s="54">
         <v>0</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="49"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3238,207 +3527,321 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="A18" sqref="A18:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="62" customWidth="1"/>
-    <col min="2" max="2" width="2.140625" style="62" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="62" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="62" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="62" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="62" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="69" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" style="69" customWidth="1"/>
-    <col min="10" max="10" width="98.28515625" style="62" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="62"/>
+    <col min="1" max="1" width="5.6640625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="2.1640625" style="61" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="61" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="61" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="61" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="68" customWidth="1"/>
+    <col min="9" max="9" width="34.5" style="68" customWidth="1"/>
+    <col min="10" max="10" width="98.33203125" style="61" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="65"/>
-      <c r="C3" s="71" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="66"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="65"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="66"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="74"/>
-      <c r="C5" s="75" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="76" t="s">
+      <c r="G5" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="64"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="70"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="64"/>
+      <c r="C7" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="116">
+        <v>2013</v>
+      </c>
+      <c r="G7" s="116">
+        <v>2013</v>
+      </c>
+      <c r="H7" s="118">
+        <v>42325</v>
+      </c>
+      <c r="I7" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="65"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="71"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="65"/>
-      <c r="C7" s="118" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="117" t="s">
+      <c r="J7" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="117" t="s">
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="64"/>
+      <c r="C8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="64"/>
+      <c r="C9" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="64"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="64"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+    </row>
+    <row r="12" spans="2:10" s="143" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="143" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="143" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="143">
+        <v>2015</v>
+      </c>
+      <c r="H12" s="144" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="144" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="143" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="143" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="143" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="143">
+        <v>2015</v>
+      </c>
+      <c r="H13" s="144" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="144" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="64"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="64"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="64"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+    </row>
+    <row r="18" spans="3:9" s="160" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="160" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="160" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="117">
-        <v>2013</v>
-      </c>
-      <c r="G7" s="117">
-        <v>2013</v>
-      </c>
-      <c r="H7" s="119">
-        <v>42325</v>
-      </c>
-      <c r="I7" s="120" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="121" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="65"/>
-      <c r="C8" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="65"/>
-      <c r="C9" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="65"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="65"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="65"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="65"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="65"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
+      <c r="G18" s="160">
+        <v>2015</v>
+      </c>
+      <c r="H18" s="161" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="161" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" s="160" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="160" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="160" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="160" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="160">
+        <v>2015</v>
+      </c>
+      <c r="H19" s="161" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="161" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" s="160" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="160" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="160" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="160" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="160">
+        <v>2016</v>
+      </c>
+      <c r="H20" s="161" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="161" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" s="160" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="160" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="160" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="160" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="160">
+        <v>2016</v>
+      </c>
+      <c r="H21" s="161" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="161" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3448,732 +3851,1018 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="106" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="106" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="106"/>
-    <col min="4" max="4" width="8.42578125" style="106" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="106"/>
+    <col min="1" max="1" width="4.6640625" style="105" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" style="105" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="105"/>
+    <col min="4" max="4" width="8.5" style="105" customWidth="1"/>
+    <col min="5" max="5" width="15" style="105" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="112"/>
-      <c r="C3" s="99" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="109"/>
+      <c r="C5" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="109"/>
+      <c r="C6" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="110"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="110"/>
-      <c r="C5" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="110"/>
-      <c r="C6" s="111" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="110"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="110"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="110"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="110"/>
-      <c r="C10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="110"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="110"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="110"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="110"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="110"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="110"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="110"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111">
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110">
         <v>248000</v>
       </c>
-      <c r="F18" s="111" t="s">
+      <c r="F18" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="110"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="110"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="110"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="110"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="110"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="110"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="111"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="110"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="111"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="110"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111">
+      <c r="B27" s="109"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110">
         <v>12</v>
       </c>
-      <c r="F27" s="117" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
+      <c r="F27" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="110"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="110"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="110"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="111"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="110"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="111"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="110"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="111"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="110"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="110"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="110"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="110"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="111"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="110"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="111"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="110"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="110"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="110"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="111"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="110"/>
-      <c r="C39" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="111"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="110"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="110"/>
-      <c r="C40" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="142" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="110"/>
+      <c r="B41" s="109"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="110"/>
+      <c r="B42" s="109"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43" s="110"/>
+      <c r="B43" s="109"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="110"/>
-      <c r="E44" s="106">
+      <c r="B44" s="109"/>
+      <c r="D44" s="160" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="105">
         <v>6.8</v>
       </c>
-      <c r="F44" s="123" t="s">
-        <v>63</v>
+      <c r="F44" s="122" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B45" s="110"/>
-      <c r="E45" s="106">
+      <c r="B45" s="109"/>
+      <c r="E45" s="105">
         <f>1/E44</f>
         <v>0.14705882352941177</v>
       </c>
-      <c r="F45" s="123" t="s">
+      <c r="F45" s="122" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B46" s="109"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B47" s="109"/>
+      <c r="D47" s="160" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="105">
+        <v>1.4</v>
+      </c>
+      <c r="F47" s="122" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B46" s="110"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="110"/>
-    </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B48" s="110"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="110"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="110"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="110"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="110"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="110"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B54" s="110"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="110"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B56" s="110"/>
-      <c r="C56" s="127"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="110"/>
-      <c r="C57" s="127"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="120"/>
-      <c r="B58" s="122"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="120"/>
-      <c r="B59" s="122"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="120"/>
-      <c r="B60" s="122"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="120"/>
-      <c r="B61" s="122"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="120"/>
-      <c r="B62" s="122"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="120"/>
-      <c r="B63" s="122"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="120"/>
-      <c r="B64" s="122"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="120"/>
-      <c r="B65" s="122"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="120"/>
-      <c r="B66" s="122"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="120"/>
-      <c r="B67" s="122"/>
-      <c r="F67" s="127"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="120"/>
-      <c r="B68" s="122"/>
-      <c r="F68" s="127"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="120"/>
-      <c r="B69" s="122"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="120"/>
-      <c r="B70" s="122"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="120"/>
-      <c r="B71" s="122"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="120"/>
-      <c r="B72" s="122"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="120"/>
-      <c r="B73" s="122"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="120"/>
-      <c r="B74" s="122"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="120"/>
-      <c r="B75" s="122"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="120"/>
-      <c r="B76" s="122"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="120"/>
-      <c r="B77" s="122"/>
+      <c r="B48" s="109"/>
+      <c r="E48" s="105">
+        <f>1/E47</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F48" s="122" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49" s="109"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B50" s="109"/>
+      <c r="D50" s="160" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="105">
+        <f>((E44*G54)+(E47*G56))/(G54+G56)</f>
+        <v>3.040553663308935</v>
+      </c>
+      <c r="F50" s="160" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" s="109"/>
+      <c r="E51" s="105">
+        <f>1/E50</f>
+        <v>0.32888746943269953</v>
+      </c>
+      <c r="F51" s="160" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B52" s="109"/>
+    </row>
+    <row r="53" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="109"/>
+    </row>
+    <row r="54" spans="2:12" s="160" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="162"/>
+      <c r="F54" s="160" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" s="147">
+        <v>7546</v>
+      </c>
+      <c r="H54" s="160" t="s">
+        <v>117</v>
+      </c>
+      <c r="J54" s="160" t="s">
+        <v>96</v>
+      </c>
+      <c r="L54" s="160" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" s="160" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="162"/>
+      <c r="F55" s="160" t="s">
+        <v>119</v>
+      </c>
+      <c r="G55" s="147">
+        <v>68900</v>
+      </c>
+      <c r="H55" s="160" t="s">
+        <v>117</v>
+      </c>
+      <c r="J55" s="160" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" s="160" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="162"/>
+      <c r="F56" s="160" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56" s="147">
+        <v>17292.2</v>
+      </c>
+      <c r="H56" s="160" t="s">
+        <v>117</v>
+      </c>
+      <c r="J56" s="160" t="s">
+        <v>109</v>
+      </c>
+      <c r="L56" s="160" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" s="160" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="162"/>
+      <c r="F57" s="160" t="s">
+        <v>122</v>
+      </c>
+      <c r="G57" s="147">
+        <v>1469</v>
+      </c>
+      <c r="H57" s="160" t="s">
+        <v>117</v>
+      </c>
+      <c r="J57" s="160" t="s">
+        <v>109</v>
+      </c>
+      <c r="L57" s="160" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B58" s="109"/>
+    </row>
+    <row r="59" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="109"/>
+    </row>
+    <row r="60" spans="2:12" s="145" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="146" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="147">
+        <f>G54+G56</f>
+        <v>24838.2</v>
+      </c>
+      <c r="F60" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+    </row>
+    <row r="61" spans="2:12" s="145" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61">
+        <f>E60*1000000</f>
+        <v>24838200000</v>
+      </c>
+      <c r="F61" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+    </row>
+    <row r="62" spans="2:12" s="145" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="61"/>
+      <c r="D62" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="148">
+        <f>G55+G57</f>
+        <v>70369</v>
+      </c>
+      <c r="F62" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
+    </row>
+    <row r="63" spans="2:12" s="145" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="149">
+        <f>E62*1000000</f>
+        <v>70369000000</v>
+      </c>
+      <c r="F63" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+    </row>
+    <row r="64" spans="2:12" s="145" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+    </row>
+    <row r="65" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="150">
+        <f>E63/E61</f>
+        <v>2.8330957959916581</v>
+      </c>
+      <c r="F65" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+    </row>
+    <row r="66" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+    </row>
+    <row r="67" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+    </row>
+    <row r="68" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="61"/>
+    </row>
+    <row r="69" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="61"/>
+      <c r="D69" s="61" t="str">
+        <f>Dashboard!C11</f>
+        <v>output.freight_tonne_kms</v>
+      </c>
+      <c r="E69" s="61">
+        <f>E65*E51</f>
+        <v>0.93176970700411599</v>
+      </c>
+      <c r="F69" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="G69" s="61"/>
+      <c r="H69" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="I69" s="61"/>
+    </row>
+    <row r="70" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="61"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="94"/>
+      <c r="I70" s="61"/>
+    </row>
+    <row r="71" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="61"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="61"/>
+    </row>
+    <row r="72" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+    </row>
+    <row r="73" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B95" s="109"/>
+      <c r="C95" s="126"/>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B96" s="109"/>
+      <c r="C96" s="126"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="119"/>
+      <c r="B97" s="121"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="119"/>
+      <c r="B98" s="121"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="119"/>
+      <c r="B99" s="121"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="119"/>
+      <c r="B100" s="121"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="119"/>
+      <c r="B101" s="121"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="119"/>
+      <c r="B102" s="121"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="119"/>
+      <c r="B103" s="121"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="119"/>
+      <c r="B104" s="121"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="119"/>
+      <c r="B105" s="121"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="119"/>
+      <c r="B106" s="121"/>
+      <c r="F106" s="126"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="119"/>
+      <c r="B107" s="121"/>
+      <c r="F107" s="126"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="119"/>
+      <c r="B108" s="121"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="119"/>
+      <c r="B109" s="121"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="119"/>
+      <c r="B110" s="121"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="119"/>
+      <c r="B111" s="121"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="119"/>
+      <c r="B112" s="121"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="119"/>
+      <c r="B113" s="121"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="119"/>
+      <c r="B114" s="121"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="119"/>
+      <c r="B115" s="121"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="119"/>
+      <c r="B116" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
